--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV_Fiets.xlsx
@@ -394,7 +394,7 @@
         <v>12.73633353010164</v>
       </c>
       <c r="D2">
-        <v>11.86394186824921</v>
+        <v>11.8639418682492</v>
       </c>
       <c r="E2">
         <v>12.18852091713292</v>
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="C4">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="D4">
-        <v>0.4930538134380273</v>
+        <v>0.4930538134380272</v>
       </c>
       <c r="E4">
         <v>0.513683334417758</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19.57810414555966</v>
+        <v>19.57810414555965</v>
       </c>
       <c r="C5">
         <v>15.33756700903575</v>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31.44362180953521</v>
+        <v>31.4436218095352</v>
       </c>
       <c r="C6">
         <v>20.28516927001503</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>49.50170498833283</v>
+        <v>49.50170498833282</v>
       </c>
       <c r="C7">
         <v>34.12484957530258</v>
@@ -499,7 +499,7 @@
         <v>118.1731731004137</v>
       </c>
       <c r="E8">
-        <v>83.57944699846905</v>
+        <v>83.57944699846904</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,10 +527,10 @@
         <v>62.7486401260557</v>
       </c>
       <c r="C10">
-        <v>79.82777311365425</v>
+        <v>79.82777311365426</v>
       </c>
       <c r="D10">
-        <v>57.2206943433582</v>
+        <v>57.22069434335818</v>
       </c>
       <c r="E10">
         <v>17.63003960123956</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>55.77656900093841</v>
+        <v>55.77656900093839</v>
       </c>
       <c r="C11">
         <v>53.62476361833262</v>
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.79128598388966</v>
+        <v>18.79128598388965</v>
       </c>
       <c r="C12">
         <v>11.40263977469513</v>
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>45.46278867070078</v>
+        <v>45.46278867070077</v>
       </c>
       <c r="C17">
         <v>39.90923921143295</v>
@@ -683,7 +683,7 @@
         <v>100.8201030791935</v>
       </c>
       <c r="D19">
-        <v>97.75523229441288</v>
+        <v>97.75523229441285</v>
       </c>
       <c r="E19">
         <v>89.79417525590449</v>
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>85.47058149523761</v>
+        <v>85.47058149523762</v>
       </c>
       <c r="C20">
         <v>76.98989689683864</v>
@@ -717,7 +717,7 @@
         <v>83.10020617436552</v>
       </c>
       <c r="D21">
-        <v>62.15301806373165</v>
+        <v>62.15301806373164</v>
       </c>
       <c r="E21">
         <v>34.81814958902419</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>28.27109537952388</v>
+        <v>28.27109537952387</v>
       </c>
       <c r="C22">
         <v>20.52037918467016</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8.801785328741504</v>
+        <v>8.801785328741506</v>
       </c>
       <c r="C23">
         <v>11.57848502736513</v>
@@ -754,7 +754,7 @@
         <v>11.29899225547543</v>
       </c>
       <c r="E23">
-        <v>8.125680611421949</v>
+        <v>8.125680611421947</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -771,7 +771,7 @@
         <v>88.20216708337054</v>
       </c>
       <c r="E24">
-        <v>68.4441174549568</v>
+        <v>68.44411745495681</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -788,7 +788,7 @@
         <v>58.53416542805498</v>
       </c>
       <c r="E25">
-        <v>58.25898092892156</v>
+        <v>58.25898092892157</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.516375247254754</v>
+        <v>0.5163752472547539</v>
       </c>
       <c r="C26">
         <v>0.4223558550269567</v>
@@ -822,7 +822,7 @@
         <v>49.25836833764943</v>
       </c>
       <c r="E27">
-        <v>48.63796589171295</v>
+        <v>48.63796589171296</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -935,10 +935,10 @@
         <v>12.64773055656839</v>
       </c>
       <c r="C34">
-        <v>8.19979080702392</v>
+        <v>8.199790807023923</v>
       </c>
       <c r="D34">
-        <v>11.80460425609094</v>
+        <v>11.80460425609095</v>
       </c>
       <c r="E34">
         <v>39.80122677413245</v>
@@ -958,7 +958,7 @@
         <v>64.21187443960449</v>
       </c>
       <c r="E35">
-        <v>79.48131747411598</v>
+        <v>79.481317474116</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>300.0808844448137</v>
+        <v>300.0808844448138</v>
       </c>
       <c r="C36">
-        <v>348.4938393715085</v>
+        <v>348.4938393715086</v>
       </c>
       <c r="D36">
-        <v>420.0088042306953</v>
+        <v>420.0088042306954</v>
       </c>
       <c r="E36">
-        <v>426.3690639984034</v>
+        <v>426.3690639984033</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,10 +983,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>479.573053636235</v>
+        <v>479.5730536362352</v>
       </c>
       <c r="C37">
-        <v>608.3943700236522</v>
+        <v>608.3943700236523</v>
       </c>
       <c r="D37">
         <v>527.9988784397119</v>
@@ -1020,13 +1020,13 @@
         <v>20.47143153939267</v>
       </c>
       <c r="C39">
-        <v>34.04291845048856</v>
+        <v>34.04291845048857</v>
       </c>
       <c r="D39">
         <v>24.14006450312379</v>
       </c>
       <c r="E39">
-        <v>5.996761952800266</v>
+        <v>5.996761952800265</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.8870458969766211</v>
+        <v>0.887045896976621</v>
       </c>
       <c r="C41">
-        <v>0.877500240323756</v>
+        <v>0.8775002403237561</v>
       </c>
       <c r="D41">
-        <v>0.8796147183507463</v>
+        <v>0.8796147183507466</v>
       </c>
       <c r="E41">
-        <v>0.8110338517766937</v>
+        <v>0.8110338517766938</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,7 +1071,7 @@
         <v>357.7343898558362</v>
       </c>
       <c r="C42">
-        <v>287.3910141636544</v>
+        <v>287.3910141636545</v>
       </c>
       <c r="D42">
         <v>368.579331809342</v>
@@ -1119,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>93.6031109790861</v>
+        <v>93.60311097908611</v>
       </c>
       <c r="C45">
         <v>119.2998579853656</v>
@@ -1142,7 +1142,7 @@
         <v>166.3292971082395</v>
       </c>
       <c r="D46">
-        <v>186.4693594587935</v>
+        <v>186.4693594587936</v>
       </c>
       <c r="E46">
         <v>180.9048559964093</v>
@@ -1153,10 +1153,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>29.76128678887055</v>
+        <v>29.76128678887056</v>
       </c>
       <c r="C47">
-        <v>33.67204297892338</v>
+        <v>33.67204297892339</v>
       </c>
       <c r="D47">
         <v>53.74673005199637</v>
@@ -1221,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>144.5663139158555</v>
+        <v>144.5663139158556</v>
       </c>
       <c r="C51">
         <v>133.6562247194309</v>
@@ -1241,13 +1241,13 @@
         <v>64.39285924210913</v>
       </c>
       <c r="C52">
-        <v>52.52681848995772</v>
+        <v>52.52681848995771</v>
       </c>
       <c r="D52">
-        <v>61.89220677345034</v>
+        <v>61.89220677345033</v>
       </c>
       <c r="E52">
-        <v>92.31016612763753</v>
+        <v>92.31016612763749</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>334.4216608386921</v>
       </c>
       <c r="E53">
-        <v>225.6815940834687</v>
+        <v>225.6815940834688</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1309,7 +1309,7 @@
         <v>41.90202303566949</v>
       </c>
       <c r="C56">
-        <v>33.10483151385478</v>
+        <v>33.1048315138548</v>
       </c>
       <c r="D56">
         <v>39.13479386623975</v>
@@ -1332,7 +1332,7 @@
         <v>247.7835804784851</v>
       </c>
       <c r="E57">
-        <v>314.9021619494337</v>
+        <v>314.9021619494338</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1380,7 +1380,7 @@
         <v>191.1191286371717</v>
       </c>
       <c r="D60">
-        <v>162.9409811556051</v>
+        <v>162.940981155605</v>
       </c>
       <c r="E60">
         <v>114.9596846765855</v>
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>59.72487578630286</v>
+        <v>59.72487578630287</v>
       </c>
       <c r="C61">
-        <v>54.26246617085529</v>
+        <v>54.2624661708553</v>
       </c>
       <c r="D61">
-        <v>55.22649501352441</v>
+        <v>55.2264950135244</v>
       </c>
       <c r="E61">
-        <v>59.57424954899976</v>
+        <v>59.57424954899977</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>67.92989577368633</v>
+        <v>67.92989577368631</v>
       </c>
       <c r="C62">
         <v>59.59144934881157</v>
@@ -1417,7 +1417,7 @@
         <v>52.27983149360556</v>
       </c>
       <c r="E62">
-        <v>43.5991898435832</v>
+        <v>43.59918984358322</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>25.43188216157715</v>
+        <v>25.43188216157714</v>
       </c>
       <c r="C63">
         <v>21.12787749639683</v>
@@ -1434,7 +1434,7 @@
         <v>20.24562101958255</v>
       </c>
       <c r="E63">
-        <v>21.39339128970852</v>
+        <v>21.39339128970853</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>4.261456502127414</v>
       </c>
       <c r="E65">
-        <v>7.890980450630894</v>
+        <v>7.890980450630897</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1485,7 +1485,7 @@
         <v>303.5017093794369</v>
       </c>
       <c r="E66">
-        <v>260.4394235514163</v>
+        <v>260.4394235514162</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1496,7 +1496,7 @@
         <v>74.10009851219085</v>
       </c>
       <c r="C67">
-        <v>50.92953096814277</v>
+        <v>50.92953096814279</v>
       </c>
       <c r="D67">
         <v>62.8962648581942</v>
@@ -1527,7 +1527,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>199.6343830504906</v>
+        <v>199.6343830504907</v>
       </c>
       <c r="C69">
         <v>193.5322176789425</v>
@@ -1547,7 +1547,7 @@
         <v>103.7401379170672</v>
       </c>
       <c r="C70">
-        <v>93.24021823398445</v>
+        <v>93.24021823398446</v>
       </c>
       <c r="D70">
         <v>92.88169345337981</v>
@@ -1581,7 +1581,7 @@
         <v>20.16952135601741</v>
       </c>
       <c r="C72">
-        <v>16.19899813431249</v>
+        <v>16.1989981343125</v>
       </c>
       <c r="D72">
         <v>14.53114635782588</v>
@@ -1598,13 +1598,13 @@
         <v>38.65824926570004</v>
       </c>
       <c r="C73">
-        <v>33.87063246265339</v>
+        <v>33.8706324626534</v>
       </c>
       <c r="D73">
         <v>35.98188621937837</v>
       </c>
       <c r="E73">
-        <v>42.413695195603</v>
+        <v>42.41369519560299</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>13.14722765708056</v>
       </c>
       <c r="E74">
-        <v>14.34580866910102</v>
+        <v>14.34580866910101</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1638,7 +1638,7 @@
         <v>28.68106117630849</v>
       </c>
       <c r="E75">
-        <v>35.56028380986875</v>
+        <v>35.56028380986876</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>29.63737156125507</v>
       </c>
       <c r="E78">
-        <v>27.87471099884867</v>
+        <v>27.87471099884868</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1706,7 +1706,7 @@
         <v>4.135447194593732</v>
       </c>
       <c r="E79">
-        <v>3.635831869415044</v>
+        <v>3.635831869415045</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1808,7 +1808,7 @@
         <v>128.7735351182334</v>
       </c>
       <c r="E85">
-        <v>108.0136687405006</v>
+        <v>108.0136687405005</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1819,10 +1819,10 @@
         <v>65.71157160097746</v>
       </c>
       <c r="C86">
-        <v>55.84092077941452</v>
+        <v>55.84092077941454</v>
       </c>
       <c r="D86">
-        <v>54.22043583925618</v>
+        <v>54.22043583925619</v>
       </c>
       <c r="E86">
         <v>57.78731277616779</v>
@@ -1833,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>83.01472062573946</v>
+        <v>83.01472062573944</v>
       </c>
       <c r="C87">
         <v>86.71599017795141</v>
@@ -1842,7 +1842,7 @@
         <v>90.58916704111431</v>
       </c>
       <c r="E87">
-        <v>95.9318758242494</v>
+        <v>95.93187582424939</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1876,7 +1876,7 @@
         <v>24.07264578714925</v>
       </c>
       <c r="E89">
-        <v>26.61693664487845</v>
+        <v>26.61693664487844</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>547.7677785936286</v>
       </c>
       <c r="D91">
-        <v>773.3414536355867</v>
+        <v>773.3414536355868</v>
       </c>
       <c r="E91">
         <v>1183.392117002904</v>
@@ -1927,7 +1927,7 @@
         <v>641.0409645176918</v>
       </c>
       <c r="E92">
-        <v>1117.087677515097</v>
+        <v>1117.087677515098</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1938,7 +1938,7 @@
         <v>33.12587020187917</v>
       </c>
       <c r="C93">
-        <v>44.75434026285595</v>
+        <v>44.75434026285594</v>
       </c>
       <c r="D93">
         <v>58.46051960770063</v>
@@ -1961,7 +1961,7 @@
         <v>154.6586589293941</v>
       </c>
       <c r="E94">
-        <v>48.11443760793527</v>
+        <v>48.11443760793526</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1975,7 +1975,7 @@
         <v>461.5028132822014</v>
       </c>
       <c r="D95">
-        <v>640.6331259617547</v>
+        <v>640.6331259617548</v>
       </c>
       <c r="E95">
         <v>1000.319118779747</v>
@@ -2080,7 +2080,7 @@
         <v>162.0334965538574</v>
       </c>
       <c r="E101">
-        <v>206.8910691515854</v>
+        <v>206.8910691515853</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2108,7 +2108,7 @@
         <v>401.3193277929839</v>
       </c>
       <c r="C103">
-        <v>437.3883189304054</v>
+        <v>437.3883189304055</v>
       </c>
       <c r="D103">
         <v>396.3140313986436</v>
@@ -2125,13 +2125,13 @@
         <v>523.9125518450194</v>
       </c>
       <c r="C104">
-        <v>495.6241574282214</v>
+        <v>495.6241574282215</v>
       </c>
       <c r="D104">
         <v>620.8468956040184</v>
       </c>
       <c r="E104">
-        <v>881.7128978496748</v>
+        <v>881.712897849675</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2165,7 +2165,7 @@
         <v>54.46522850580995</v>
       </c>
       <c r="E106">
-        <v>236.3440469998327</v>
+        <v>236.3440469998328</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2179,7 +2179,7 @@
         <v>123.2298030667966</v>
       </c>
       <c r="D107">
-        <v>176.7094080410722</v>
+        <v>176.7094080410723</v>
       </c>
       <c r="E107">
         <v>487.8983544501498</v>
@@ -2193,7 +2193,7 @@
         <v>1.070690560576943</v>
       </c>
       <c r="C108">
-        <v>1.108674640198209</v>
+        <v>1.10867464019821</v>
       </c>
       <c r="D108">
         <v>1.208487033193066</v>
@@ -2241,13 +2241,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>534.2364262757003</v>
+        <v>534.2364262757002</v>
       </c>
       <c r="C111">
         <v>606.7763878371765</v>
       </c>
       <c r="D111">
-        <v>577.6583099253694</v>
+        <v>577.6583099253696</v>
       </c>
       <c r="E111">
         <v>398.1818395917164</v>
@@ -2298,7 +2298,7 @@
         <v>173.3137622466798</v>
       </c>
       <c r="D114">
-        <v>241.4213295017149</v>
+        <v>241.421329501715</v>
       </c>
       <c r="E114">
         <v>480.3004265059243</v>
@@ -2332,7 +2332,7 @@
         <v>568.921440381285</v>
       </c>
       <c r="D116">
-        <v>628.9386865238462</v>
+        <v>628.9386865238464</v>
       </c>
       <c r="E116">
         <v>624.7648489439666</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.9075442550245343</v>
+        <v>0.9075442550245342</v>
       </c>
       <c r="C118">
         <v>0.9133576216203363</v>
@@ -2400,7 +2400,7 @@
         <v>285.553931577091</v>
       </c>
       <c r="D120">
-        <v>432.301746007488</v>
+        <v>432.3017460074881</v>
       </c>
       <c r="E120">
         <v>1095.968169230839</v>
@@ -2417,10 +2417,10 @@
         <v>801.2144293764979</v>
       </c>
       <c r="D121">
-        <v>815.0204960571278</v>
+        <v>815.0204960571281</v>
       </c>
       <c r="E121">
-        <v>620.7516188868439</v>
+        <v>620.7516188868441</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2428,13 +2428,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>649.5884930666975</v>
+        <v>649.5884930666974</v>
       </c>
       <c r="C122">
         <v>702.5878529364918</v>
       </c>
       <c r="D122">
-        <v>650.6528522062461</v>
+        <v>650.6528522062462</v>
       </c>
       <c r="E122">
         <v>445.6461353524787</v>
@@ -2445,7 +2445,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>612.9302082766292</v>
+        <v>612.9302082766291</v>
       </c>
       <c r="C123">
         <v>635.3209789018462</v>
@@ -2482,7 +2482,7 @@
         <v>664.0916496940739</v>
       </c>
       <c r="C125">
-        <v>744.3312929420575</v>
+        <v>744.3312929420578</v>
       </c>
       <c r="D125">
         <v>695.7204295899802</v>
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>34.79312965403776</v>
+        <v>34.79312965403777</v>
       </c>
       <c r="C126">
-        <v>25.20425956027388</v>
+        <v>25.20425956027389</v>
       </c>
       <c r="D126">
         <v>21.65761996355229</v>
       </c>
       <c r="E126">
-        <v>17.85905941701669</v>
+        <v>17.85905941701668</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,10 +2513,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>652.1623471688291</v>
+        <v>652.1623471688292</v>
       </c>
       <c r="C127">
-        <v>643.1660256480811</v>
+        <v>643.1660256480814</v>
       </c>
       <c r="D127">
         <v>594.5432632193165</v>
@@ -2567,13 +2567,13 @@
         <v>356.7080872070149</v>
       </c>
       <c r="C130">
-        <v>379.1418969164634</v>
+        <v>379.1418969164635</v>
       </c>
       <c r="D130">
         <v>343.9108208781047</v>
       </c>
       <c r="E130">
-        <v>221.2390497684212</v>
+        <v>221.2390497684211</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,7 +2584,7 @@
         <v>617.7566334001214</v>
       </c>
       <c r="C131">
-        <v>712.1552362634766</v>
+        <v>712.1552362634768</v>
       </c>
       <c r="D131">
         <v>649.8628887388304</v>
@@ -2638,7 +2638,7 @@
         <v>203.0517734404631</v>
       </c>
       <c r="D134">
-        <v>334.4580786294795</v>
+        <v>334.4580786294796</v>
       </c>
       <c r="E134">
         <v>704.585438051598</v>
@@ -2655,7 +2655,7 @@
         <v>1114.413792294785</v>
       </c>
       <c r="D135">
-        <v>1005.617564650856</v>
+        <v>1005.617564650857</v>
       </c>
       <c r="E135">
         <v>652.6499227777341</v>
@@ -2672,7 +2672,7 @@
         <v>840.1428911142684</v>
       </c>
       <c r="D136">
-        <v>809.6640013198754</v>
+        <v>809.6640013198756</v>
       </c>
       <c r="E136">
         <v>610.5425941185797</v>
@@ -2689,7 +2689,7 @@
         <v>396.6966145270154</v>
       </c>
       <c r="D137">
-        <v>401.5547707414087</v>
+        <v>401.5547707414088</v>
       </c>
       <c r="E137">
         <v>360.5923196832416</v>
@@ -2706,10 +2706,10 @@
         <v>785.614864063305</v>
       </c>
       <c r="D138">
-        <v>673.8419098057885</v>
+        <v>673.8419098057886</v>
       </c>
       <c r="E138">
-        <v>341.5469506858873</v>
+        <v>341.5469506858872</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2723,7 +2723,7 @@
         <v>571.2367309481606</v>
       </c>
       <c r="D139">
-        <v>513.2367113459021</v>
+        <v>513.236711345902</v>
       </c>
       <c r="E139">
         <v>334.8684247614174</v>
@@ -2794,7 +2794,7 @@
         <v>16.79068954538105</v>
       </c>
       <c r="E143">
-        <v>8.538897909192077</v>
+        <v>8.538897909192075</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2862,7 +2862,7 @@
         <v>126.9263981210861</v>
       </c>
       <c r="E147">
-        <v>208.6917149487726</v>
+        <v>208.6917149487727</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2893,7 +2893,7 @@
         <v>810.2284224604704</v>
       </c>
       <c r="D149">
-        <v>611.9203334450527</v>
+        <v>611.9203334450528</v>
       </c>
       <c r="E149">
         <v>235.0049832108111</v>
@@ -2904,7 +2904,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>431.49597219571</v>
+        <v>431.4959721957101</v>
       </c>
       <c r="C150">
         <v>416.7238190935451</v>
@@ -2913,7 +2913,7 @@
         <v>380.4889252831418</v>
       </c>
       <c r="E150">
-        <v>278.8401096128276</v>
+        <v>278.8401096128277</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2941,7 +2941,7 @@
         <v>701.3263375579869</v>
       </c>
       <c r="C152">
-        <v>728.3501354244952</v>
+        <v>728.3501354244953</v>
       </c>
       <c r="D152">
         <v>589.6924580848693</v>
@@ -2978,7 +2978,7 @@
         <v>385.0221066924348</v>
       </c>
       <c r="D154">
-        <v>475.2761812443936</v>
+        <v>475.2761812443937</v>
       </c>
       <c r="E154">
         <v>735.1657005157471</v>
@@ -2992,13 +2992,13 @@
         <v>496.1518995574996</v>
       </c>
       <c r="C155">
-        <v>539.1081420211488</v>
+        <v>539.1081420211489</v>
       </c>
       <c r="D155">
         <v>601.3739317586516</v>
       </c>
       <c r="E155">
-        <v>622.8038033016152</v>
+        <v>622.8038033016153</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,7 +3009,7 @@
         <v>539.2064032381091</v>
       </c>
       <c r="C156">
-        <v>661.6327197532279</v>
+        <v>661.632719753228</v>
       </c>
       <c r="D156">
         <v>798.1872185160285</v>
@@ -3026,7 +3026,7 @@
         <v>546.1992024086142</v>
       </c>
       <c r="C157">
-        <v>601.4570921384764</v>
+        <v>601.4570921384766</v>
       </c>
       <c r="D157">
         <v>644.3495065210066</v>
@@ -3066,7 +3066,7 @@
         <v>840.7104944989152</v>
       </c>
       <c r="E159">
-        <v>508.765097262792</v>
+        <v>508.7650972627919</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3080,10 +3080,10 @@
         <v>194.7757655552465</v>
       </c>
       <c r="D160">
-        <v>257.2523800895116</v>
+        <v>257.2523800895117</v>
       </c>
       <c r="E160">
-        <v>511.3303720414586</v>
+        <v>511.3303720414587</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3134,7 +3134,7 @@
         <v>708.8966329828826</v>
       </c>
       <c r="E163">
-        <v>320.5903497334009</v>
+        <v>320.5903497334008</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3151,7 +3151,7 @@
         <v>91.46791079496701</v>
       </c>
       <c r="E164">
-        <v>254.1282421606669</v>
+        <v>254.1282421606668</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3179,7 +3179,7 @@
         <v>277.9264263896608</v>
       </c>
       <c r="C166">
-        <v>348.6500542061544</v>
+        <v>348.6500542061545</v>
       </c>
       <c r="D166">
         <v>435.0357365136441</v>
@@ -3202,7 +3202,7 @@
         <v>1.011544375508533</v>
       </c>
       <c r="E167">
-        <v>0.9558914590065104</v>
+        <v>0.9558914590065102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3216,7 +3216,7 @@
         <v>18.43979733042722</v>
       </c>
       <c r="D168">
-        <v>17.50515477249497</v>
+        <v>17.50515477249498</v>
       </c>
       <c r="E168">
         <v>13.17142432354848</v>
@@ -3233,7 +3233,7 @@
         <v>533.1426458604205</v>
       </c>
       <c r="D169">
-        <v>715.4584573089256</v>
+        <v>715.4584573089255</v>
       </c>
       <c r="E169">
         <v>1067.328512902632</v>
@@ -3247,10 +3247,10 @@
         <v>609.2168581498914</v>
       </c>
       <c r="C170">
-        <v>671.0020361959135</v>
+        <v>671.0020361959138</v>
       </c>
       <c r="D170">
-        <v>840.5414953227001</v>
+        <v>840.5414953227003</v>
       </c>
       <c r="E170">
         <v>1013.790211605057</v>
@@ -3281,7 +3281,7 @@
         <v>301.8653045250196</v>
       </c>
       <c r="C172">
-        <v>383.8178164467774</v>
+        <v>383.8178164467775</v>
       </c>
       <c r="D172">
         <v>412.7668954851446</v>
@@ -3298,7 +3298,7 @@
         <v>717.7325345827268</v>
       </c>
       <c r="C173">
-        <v>821.0944533425512</v>
+        <v>821.0944533425513</v>
       </c>
       <c r="D173">
         <v>916.5322119923923</v>
@@ -3346,10 +3346,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>719.9344267841118</v>
+        <v>719.9344267841119</v>
       </c>
       <c r="C176">
-        <v>754.2929351878109</v>
+        <v>754.2929351878111</v>
       </c>
       <c r="D176">
         <v>731.8839225103982</v>
@@ -3366,7 +3366,7 @@
         <v>608.8115431753984</v>
       </c>
       <c r="C177">
-        <v>692.1600739697046</v>
+        <v>692.1600739697049</v>
       </c>
       <c r="D177">
         <v>659.0855216923122</v>
@@ -3389,7 +3389,7 @@
         <v>484.6210353500844</v>
       </c>
       <c r="E178">
-        <v>253.9609393912319</v>
+        <v>253.960939391232</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>81.78467570678744</v>
+        <v>81.78467570678745</v>
       </c>
       <c r="C179">
         <v>63.72632366188618</v>
@@ -3420,7 +3420,7 @@
         <v>19.35476055000249</v>
       </c>
       <c r="D180">
-        <v>19.98045796125114</v>
+        <v>19.98045796125115</v>
       </c>
       <c r="E180">
         <v>18.51661258626357</v>
@@ -3451,7 +3451,7 @@
         <v>3.146224916092039</v>
       </c>
       <c r="C182">
-        <v>3.146040936657684</v>
+        <v>3.146040936657685</v>
       </c>
       <c r="D182">
         <v>3.224716919841469</v>
@@ -3465,7 +3465,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>5.257606611183464</v>
+        <v>5.257606611183466</v>
       </c>
       <c r="C183">
         <v>4.183915284035384</v>
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>6.691119562871181</v>
+        <v>6.691119562871179</v>
       </c>
       <c r="C184">
-        <v>5.693607010969513</v>
+        <v>5.693607010969512</v>
       </c>
       <c r="D184">
         <v>6.935444406150362</v>
       </c>
       <c r="E184">
-        <v>16.97545202258587</v>
+        <v>16.97545202258588</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3502,7 +3502,7 @@
         <v>674.6878892561774</v>
       </c>
       <c r="C185">
-        <v>543.1701088464916</v>
+        <v>543.1701088464915</v>
       </c>
       <c r="D185">
         <v>767.5225142806401</v>
@@ -3519,7 +3519,7 @@
         <v>368.0044048484424</v>
       </c>
       <c r="C186">
-        <v>300.3919507136869</v>
+        <v>300.3919507136871</v>
       </c>
       <c r="D186">
         <v>371.3647922590514</v>
@@ -3536,7 +3536,7 @@
         <v>226.9228302968579</v>
       </c>
       <c r="C187">
-        <v>194.5317575966341</v>
+        <v>194.5317575966342</v>
       </c>
       <c r="D187">
         <v>299.0404032899368</v>
@@ -3567,7 +3567,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.006323013379187</v>
+        <v>1.006323013379188</v>
       </c>
       <c r="C189">
         <v>0.9973127684143225</v>
@@ -3576,7 +3576,7 @@
         <v>1.003882645453216</v>
       </c>
       <c r="E189">
-        <v>0.9136794045303314</v>
+        <v>0.9136794045303313</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,7 +3584,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.006323013379187</v>
+        <v>1.006323013379188</v>
       </c>
       <c r="C190">
         <v>0.9973127684143225</v>
@@ -3607,7 +3607,7 @@
         <v>28.50781283849759</v>
       </c>
       <c r="D191">
-        <v>45.55425466256409</v>
+        <v>45.5542546625641</v>
       </c>
       <c r="E191">
         <v>165.0600561377024</v>
@@ -3644,7 +3644,7 @@
         <v>668.6173472577926</v>
       </c>
       <c r="E193">
-        <v>1050.248688210846</v>
+        <v>1050.248688210845</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3655,10 +3655,10 @@
         <v>431.856743628001</v>
       </c>
       <c r="C194">
-        <v>486.5715246033824</v>
+        <v>486.5715246033826</v>
       </c>
       <c r="D194">
-        <v>587.5534514459194</v>
+        <v>587.5534514459196</v>
       </c>
       <c r="E194">
         <v>625.7731912862369</v>
@@ -3669,7 +3669,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>216.2484887748846</v>
+        <v>216.2484887748847</v>
       </c>
       <c r="C195">
         <v>281.6249877807616</v>
@@ -3692,10 +3692,10 @@
         <v>790.5935719708914</v>
       </c>
       <c r="D196">
-        <v>635.9362069057812</v>
+        <v>635.9362069057814</v>
       </c>
       <c r="E196">
-        <v>280.4407498810053</v>
+        <v>280.4407498810054</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>535.1084114571903</v>
       </c>
       <c r="E197">
-        <v>356.7847529970282</v>
+        <v>356.7847529970281</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3726,7 +3726,7 @@
         <v>212.2413333912601</v>
       </c>
       <c r="D198">
-        <v>266.1393592631422</v>
+        <v>266.1393592631424</v>
       </c>
       <c r="E198">
         <v>287.6975801231268</v>
@@ -3737,13 +3737,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>681.7157888085555</v>
+        <v>681.7157888085557</v>
       </c>
       <c r="C199">
-        <v>784.7273086365516</v>
+        <v>784.7273086365517</v>
       </c>
       <c r="D199">
-        <v>694.7649588962687</v>
+        <v>694.7649588962689</v>
       </c>
       <c r="E199">
         <v>406.8993236161417</v>
@@ -3760,7 +3760,7 @@
         <v>686.3300547285485</v>
       </c>
       <c r="D200">
-        <v>602.443939243576</v>
+        <v>602.4439392435761</v>
       </c>
       <c r="E200">
         <v>367.0242086671341</v>
@@ -3774,10 +3774,10 @@
         <v>5.59230240198337</v>
       </c>
       <c r="C201">
-        <v>5.881809682335901</v>
+        <v>5.881809682335904</v>
       </c>
       <c r="D201">
-        <v>6.428267242388346</v>
+        <v>6.428267242388348</v>
       </c>
       <c r="E201">
         <v>3.710502668316007</v>
@@ -3805,13 +3805,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>550.8590832334108</v>
+        <v>550.8590832334107</v>
       </c>
       <c r="C203">
         <v>601.7302906341303</v>
       </c>
       <c r="D203">
-        <v>708.3673456923502</v>
+        <v>708.3673456923503</v>
       </c>
       <c r="E203">
         <v>787.9262021868821</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>614.2678375740859</v>
+        <v>614.267837574086</v>
       </c>
       <c r="C204">
         <v>632.1346169450449</v>
@@ -3831,7 +3831,7 @@
         <v>633.9719406136649</v>
       </c>
       <c r="E204">
-        <v>545.2087905195104</v>
+        <v>545.2087905195106</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3856,13 +3856,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>439.6671347841381</v>
+        <v>439.667134784138</v>
       </c>
       <c r="C206">
-        <v>490.3668987171606</v>
+        <v>490.3668987171607</v>
       </c>
       <c r="D206">
-        <v>366.4503406910726</v>
+        <v>366.4503406910727</v>
       </c>
       <c r="E206">
         <v>126.660977089271</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>510.9701667353892</v>
+        <v>510.970166735389</v>
       </c>
       <c r="C207">
-        <v>461.8115287824856</v>
+        <v>461.8115287824857</v>
       </c>
       <c r="D207">
         <v>318.2197590651159</v>
       </c>
       <c r="E207">
-        <v>104.275285421105</v>
+        <v>104.2752854211051</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3893,7 +3893,7 @@
         <v>718.8224379497847</v>
       </c>
       <c r="C208">
-        <v>742.2301524720509</v>
+        <v>742.2301524720511</v>
       </c>
       <c r="D208">
         <v>589.1093640920659</v>
@@ -3947,7 +3947,7 @@
         <v>286.6985677814873</v>
       </c>
       <c r="D211">
-        <v>277.8586006865918</v>
+        <v>277.8586006865919</v>
       </c>
       <c r="E211">
         <v>173.1555378881414</v>
@@ -3978,7 +3978,7 @@
         <v>468.62988926579</v>
       </c>
       <c r="C213">
-        <v>496.054066988802</v>
+        <v>496.0540669888022</v>
       </c>
       <c r="D213">
         <v>362.5288394412714</v>
@@ -4009,10 +4009,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>441.6976398202933</v>
+        <v>441.6976398202932</v>
       </c>
       <c r="C215">
-        <v>475.3223781819566</v>
+        <v>475.3223781819567</v>
       </c>
       <c r="D215">
         <v>361.2923179907337</v>
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>645.5800910285765</v>
+        <v>645.5800910285762</v>
       </c>
       <c r="C216">
         <v>619.3455663848288</v>
@@ -4052,7 +4052,7 @@
         <v>433.7935556298842</v>
       </c>
       <c r="E217">
-        <v>214.0004007535677</v>
+        <v>214.0004007535676</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4083,10 +4083,10 @@
         <v>502.4052159873164</v>
       </c>
       <c r="D219">
-        <v>460.5253834811857</v>
+        <v>460.5253834811856</v>
       </c>
       <c r="E219">
-        <v>308.2691027469799</v>
+        <v>308.2691027469798</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4103,7 +4103,7 @@
         <v>345.9184038849141</v>
       </c>
       <c r="E220">
-        <v>296.0315835543032</v>
+        <v>296.0315835543031</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,7 +4111,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>454.4738323197119</v>
+        <v>454.473832319712</v>
       </c>
       <c r="C221">
         <v>437.4053745237087</v>
@@ -4120,7 +4120,7 @@
         <v>473.8293803052197</v>
       </c>
       <c r="E221">
-        <v>472.7755235882976</v>
+        <v>472.7755235882977</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4168,10 +4168,10 @@
         <v>410.3534580833106</v>
       </c>
       <c r="D224">
-        <v>427.3576972033821</v>
+        <v>427.357697203382</v>
       </c>
       <c r="E224">
-        <v>432.4609224481349</v>
+        <v>432.4609224481348</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,7 +4185,7 @@
         <v>481.2697090400789</v>
       </c>
       <c r="D225">
-        <v>414.3753037063748</v>
+        <v>414.3753037063747</v>
       </c>
       <c r="E225">
         <v>220.9725077733207</v>
@@ -4202,7 +4202,7 @@
         <v>350.9836929277794</v>
       </c>
       <c r="D226">
-        <v>333.2855050350914</v>
+        <v>333.2855050350913</v>
       </c>
       <c r="E226">
         <v>258.1756291954125</v>
@@ -4216,7 +4216,7 @@
         <v>54.39460901029987</v>
       </c>
       <c r="C227">
-        <v>21.26697439567731</v>
+        <v>21.26697439567732</v>
       </c>
       <c r="D227">
         <v>11.51843968187186</v>
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>593.3882117604702</v>
+        <v>593.3882117604701</v>
       </c>
       <c r="C229">
         <v>613.0428116750396</v>
@@ -4332,7 +4332,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>476.060892178381</v>
+        <v>476.0608921783809</v>
       </c>
       <c r="C234">
         <v>396.4832013248891</v>
@@ -4349,7 +4349,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>23.30368003670397</v>
+        <v>23.30368003670396</v>
       </c>
       <c r="C235">
         <v>21.72510692191173</v>
@@ -4383,7 +4383,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>401.8352425916076</v>
+        <v>401.8352425916077</v>
       </c>
       <c r="C237">
         <v>510.1762817746606</v>
@@ -4400,7 +4400,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>680.8200643056429</v>
+        <v>680.820064305643</v>
       </c>
       <c r="C238">
         <v>788.3101840613136</v>
@@ -4409,7 +4409,7 @@
         <v>741.2531197830345</v>
       </c>
       <c r="E238">
-        <v>492.258145308833</v>
+        <v>492.2581453088332</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7.502496515588041</v>
+        <v>7.502496515588042</v>
       </c>
       <c r="C239">
         <v>8.793067757904222</v>
@@ -4426,7 +4426,7 @@
         <v>8.424742052917574</v>
       </c>
       <c r="E239">
-        <v>5.566585110847066</v>
+        <v>5.566585110847067</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4443,7 +4443,7 @@
         <v>452.1977146053993</v>
       </c>
       <c r="E240">
-        <v>790.6195694669955</v>
+        <v>790.6195694669954</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4494,7 +4494,7 @@
         <v>376.2136208527658</v>
       </c>
       <c r="E243">
-        <v>627.6436097350585</v>
+        <v>627.6436097350586</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,7 +4502,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>358.8866018126979</v>
+        <v>358.8866018126981</v>
       </c>
       <c r="C244">
         <v>258.061055841446</v>
@@ -4542,7 +4542,7 @@
         <v>2.969835006560769</v>
       </c>
       <c r="D246">
-        <v>4.04470367060936</v>
+        <v>4.044703670609359</v>
       </c>
       <c r="E246">
         <v>7.656515843814005</v>
@@ -4559,7 +4559,7 @@
         <v>0.742458751640192</v>
       </c>
       <c r="D247">
-        <v>0.808940734121872</v>
+        <v>0.8089407341218718</v>
       </c>
       <c r="E247">
         <v>1.701447965292001</v>
@@ -4576,7 +4576,7 @@
         <v>39.00217336905546</v>
       </c>
       <c r="D248">
-        <v>34.64823520585943</v>
+        <v>34.64823520585944</v>
       </c>
       <c r="E248">
         <v>24.39938120134803</v>
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.7796154797839953</v>
+        <v>0.7796154797839954</v>
       </c>
       <c r="C249">
         <v>0.6685088936876817</v>
@@ -4607,13 +4607,13 @@
         <v>610.4521996292348</v>
       </c>
       <c r="C250">
-        <v>563.8666527274906</v>
+        <v>563.8666527274908</v>
       </c>
       <c r="D250">
-        <v>699.5207016847187</v>
+        <v>699.5207016847189</v>
       </c>
       <c r="E250">
-        <v>965.4177455113618</v>
+        <v>965.4177455113615</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4644,7 +4644,7 @@
         <v>702.9377629101772</v>
       </c>
       <c r="D252">
-        <v>909.8919421263842</v>
+        <v>909.8919421263844</v>
       </c>
       <c r="E252">
         <v>1310.200525980143</v>
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>75.70436109423215</v>
+        <v>75.70436109423214</v>
       </c>
       <c r="C253">
         <v>78.23022905702494</v>
       </c>
       <c r="D253">
-        <v>99.63334858372734</v>
+        <v>99.63334858372735</v>
       </c>
       <c r="E253">
         <v>128.47160275972</v>
@@ -4695,7 +4695,7 @@
         <v>5.101971460240756</v>
       </c>
       <c r="D255">
-        <v>6.518069533514873</v>
+        <v>6.518069533514874</v>
       </c>
       <c r="E255">
         <v>8.439740327280878</v>
@@ -4712,7 +4712,7 @@
         <v>188.7495233254589</v>
       </c>
       <c r="D256">
-        <v>227.8685184279025</v>
+        <v>227.8685184279026</v>
       </c>
       <c r="E256">
         <v>275.1886286700242</v>
@@ -4726,10 +4726,10 @@
         <v>40.20841201548021</v>
       </c>
       <c r="C257">
-        <v>34.69006087861156</v>
+        <v>34.69006087861157</v>
       </c>
       <c r="D257">
-        <v>35.56792711714751</v>
+        <v>35.56792711714752</v>
       </c>
       <c r="E257">
         <v>35.62907529580122</v>
@@ -4743,7 +4743,7 @@
         <v>78.52373008946702</v>
       </c>
       <c r="C258">
-        <v>74.11659098076196</v>
+        <v>74.11659098076198</v>
       </c>
       <c r="D258">
         <v>86.32060257073911</v>
@@ -4760,7 +4760,7 @@
         <v>17.99502147883619</v>
       </c>
       <c r="C259">
-        <v>13.40406432630801</v>
+        <v>13.40406432630802</v>
       </c>
       <c r="D259">
         <v>14.11009849714005</v>
@@ -4794,7 +4794,7 @@
         <v>7.37263515188066</v>
       </c>
       <c r="C261">
-        <v>6.004043312327032</v>
+        <v>6.004043312327034</v>
       </c>
       <c r="D261">
         <v>6.943779169479583</v>
@@ -4865,7 +4865,7 @@
         <v>11.37582481826081</v>
       </c>
       <c r="D265">
-        <v>11.5696034648397</v>
+        <v>11.56960346483971</v>
       </c>
       <c r="E265">
         <v>15.34528007130765</v>
@@ -4879,7 +4879,7 @@
         <v>79.53005155253099</v>
       </c>
       <c r="C266">
-        <v>66.65614404041276</v>
+        <v>66.65614404041277</v>
       </c>
       <c r="D266">
         <v>76.4764997202239</v>
@@ -4930,7 +4930,7 @@
         <v>74.07742938318187</v>
       </c>
       <c r="C269">
-        <v>70.46850834994359</v>
+        <v>70.46850834994362</v>
       </c>
       <c r="D269">
         <v>71.75238475128904</v>
@@ -4947,7 +4947,7 @@
         <v>138.8052549135672</v>
       </c>
       <c r="C270">
-        <v>128.5317675631299</v>
+        <v>128.53176756313</v>
       </c>
       <c r="D270">
         <v>122.1302918075078</v>
@@ -4978,13 +4978,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>32.98790931739511</v>
+        <v>32.98790931739512</v>
       </c>
       <c r="C272">
         <v>27.09498662298294</v>
       </c>
       <c r="D272">
-        <v>23.79096828351202</v>
+        <v>23.79096828351201</v>
       </c>
       <c r="E272">
         <v>22.03741631106848</v>
@@ -4995,10 +4995,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>62.60899670739396</v>
+        <v>62.60899670739395</v>
       </c>
       <c r="C273">
-        <v>64.05854181074594</v>
+        <v>64.05854181074595</v>
       </c>
       <c r="D273">
         <v>59.92710293528715</v>
@@ -5012,10 +5012,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>27.39143605948486</v>
+        <v>27.39143605948485</v>
       </c>
       <c r="C274">
-        <v>26.77579260872449</v>
+        <v>26.7757926087245</v>
       </c>
       <c r="D274">
         <v>29.96355146764357</v>
@@ -5052,7 +5052,7 @@
         <v>19.21214591930694</v>
       </c>
       <c r="D276">
-        <v>17.87362431081122</v>
+        <v>17.87362431081121</v>
       </c>
       <c r="E276">
         <v>23.70332832013744</v>
@@ -5086,7 +5086,7 @@
         <v>144.8328343062574</v>
       </c>
       <c r="D278">
-        <v>143.6761125962254</v>
+        <v>143.6761125962255</v>
       </c>
       <c r="E278">
         <v>134.5274260743736</v>
@@ -5100,7 +5100,7 @@
         <v>34.23383590117044</v>
       </c>
       <c r="C279">
-        <v>32.66215642749857</v>
+        <v>32.66215642749856</v>
       </c>
       <c r="D279">
         <v>42.3997870567303</v>
@@ -5123,7 +5123,7 @@
         <v>35.2133824708438</v>
       </c>
       <c r="E280">
-        <v>43.44144045916052</v>
+        <v>43.44144045916051</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5148,10 +5148,10 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>6.923430332139372</v>
+        <v>6.923430332139371</v>
       </c>
       <c r="C282">
-        <v>6.96790547707276</v>
+        <v>6.967905477072761</v>
       </c>
       <c r="D282">
         <v>6.895488579270793</v>
@@ -5168,7 +5168,7 @@
         <v>29.730024367422</v>
       </c>
       <c r="C283">
-        <v>25.88079177198453</v>
+        <v>25.88079177198454</v>
       </c>
       <c r="D283">
         <v>26.08293506071996</v>
@@ -5205,10 +5205,10 @@
         <v>38.42429183861389</v>
       </c>
       <c r="D285">
-        <v>34.44734867174525</v>
+        <v>34.44734867174524</v>
       </c>
       <c r="E285">
-        <v>34.96240927220273</v>
+        <v>34.96240927220272</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>269.6550123009522</v>
       </c>
       <c r="C288">
-        <v>241.1211799913324</v>
+        <v>241.1211799913325</v>
       </c>
       <c r="D288">
         <v>320.9960781410043</v>
       </c>
       <c r="E288">
-        <v>550.9935301062209</v>
+        <v>550.9935301062208</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5276,7 +5276,7 @@
         <v>5.102172808987993</v>
       </c>
       <c r="E289">
-        <v>8.100983657243221</v>
+        <v>8.100983657243219</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5293,7 +5293,7 @@
         <v>94.21870441293758</v>
       </c>
       <c r="E290">
-        <v>217.4812581026735</v>
+        <v>217.4812581026734</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>83.82026841696243</v>
       </c>
       <c r="E292">
-        <v>98.11421332492776</v>
+        <v>98.11421332492777</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5375,7 +5375,7 @@
         <v>458.5069579321645</v>
       </c>
       <c r="D295">
-        <v>444.0030990627534</v>
+        <v>444.0030990627535</v>
       </c>
       <c r="E295">
         <v>327.8103639642855</v>
@@ -5392,10 +5392,10 @@
         <v>428.2892979861017</v>
       </c>
       <c r="D296">
-        <v>426.5896426508043</v>
+        <v>426.5896426508044</v>
       </c>
       <c r="E296">
-        <v>339.656990118921</v>
+        <v>339.6569901189209</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5403,7 +5403,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>207.9561920030109</v>
+        <v>207.956192003011</v>
       </c>
       <c r="C297">
         <v>183.771218566645</v>
@@ -5420,13 +5420,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>317.6846191593616</v>
+        <v>317.6846191593617</v>
       </c>
       <c r="C298">
         <v>324.7946228210986</v>
       </c>
       <c r="D298">
-        <v>346.8091544174379</v>
+        <v>346.809154417438</v>
       </c>
       <c r="E298">
         <v>336.0133427672732</v>
@@ -5446,7 +5446,7 @@
         <v>293.8984507732142</v>
       </c>
       <c r="E299">
-        <v>364.8484965662565</v>
+        <v>364.8484965662564</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5480,7 +5480,7 @@
         <v>309.8571317619534</v>
       </c>
       <c r="E301">
-        <v>225.8069797658137</v>
+        <v>225.8069797658136</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>31.58857693286536</v>
+        <v>31.58857693286537</v>
       </c>
       <c r="C303">
         <v>26.86481392606095</v>
@@ -5514,7 +5514,7 @@
         <v>29.74236136001621</v>
       </c>
       <c r="E303">
-        <v>33.23019566250445</v>
+        <v>33.23019566250446</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5525,7 +5525,7 @@
         <v>28.29611616222643</v>
       </c>
       <c r="C304">
-        <v>36.60297004818989</v>
+        <v>36.6029700481899</v>
       </c>
       <c r="D304">
         <v>27.44783403417571</v>
@@ -5545,7 +5545,7 @@
         <v>189.2304489283779</v>
       </c>
       <c r="D305">
-        <v>182.2817696115771</v>
+        <v>182.2817696115772</v>
       </c>
       <c r="E305">
         <v>143.9451454588734</v>
@@ -5565,7 +5565,7 @@
         <v>255.554639206766</v>
       </c>
       <c r="E306">
-        <v>195.7148559158068</v>
+        <v>195.7148559158069</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5596,7 +5596,7 @@
         <v>4.053344609312935</v>
       </c>
       <c r="D308">
-        <v>3.989167909335186</v>
+        <v>3.989167909335187</v>
       </c>
       <c r="E308">
         <v>3.177649366184265</v>
@@ -5650,7 +5650,7 @@
         <v>30.01103353731364</v>
       </c>
       <c r="E311">
-        <v>30.70095871297082</v>
+        <v>30.70095871297083</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5701,7 +5701,7 @@
         <v>12.56275822492199</v>
       </c>
       <c r="E314">
-        <v>8.725535634212761</v>
+        <v>8.725535634212763</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,7 +5709,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>738.3217495130353</v>
+        <v>738.3217495130355</v>
       </c>
       <c r="C315">
         <v>696.2507668068811</v>
@@ -5718,7 +5718,7 @@
         <v>810.2458296422263</v>
       </c>
       <c r="E315">
-        <v>990.0813950974092</v>
+        <v>990.0813950974094</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5746,13 +5746,13 @@
         <v>756.4328608240671</v>
       </c>
       <c r="C317">
-        <v>768.7481552140208</v>
+        <v>768.7481552140209</v>
       </c>
       <c r="D317">
         <v>877.6375709873406</v>
       </c>
       <c r="E317">
-        <v>980.3422989709815</v>
+        <v>980.3422989709813</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>620.0458499294572</v>
       </c>
       <c r="C318">
-        <v>716.8488816646409</v>
+        <v>716.848881664641</v>
       </c>
       <c r="D318">
-        <v>685.1219628309664</v>
+        <v>685.1219628309665</v>
       </c>
       <c r="E318">
         <v>462.9468035421335</v>
@@ -5814,7 +5814,7 @@
         <v>598.3350237140852</v>
       </c>
       <c r="C321">
-        <v>719.8501032811665</v>
+        <v>719.8501032811666</v>
       </c>
       <c r="D321">
         <v>781.1925926553213</v>
@@ -5834,7 +5834,7 @@
         <v>28.58270642482498</v>
       </c>
       <c r="D322">
-        <v>32.94264827259003</v>
+        <v>32.94264827259004</v>
       </c>
       <c r="E322">
         <v>40.17009032583651</v>
@@ -5882,7 +5882,7 @@
         <v>494.9665370059384</v>
       </c>
       <c r="C325">
-        <v>487.0744985081746</v>
+        <v>487.0744985081747</v>
       </c>
       <c r="D325">
         <v>622.1852523885647</v>
@@ -5916,13 +5916,13 @@
         <v>308.3114701583731</v>
       </c>
       <c r="C327">
-        <v>273.1385117853528</v>
+        <v>273.1385117853529</v>
       </c>
       <c r="D327">
         <v>322.5377797200541</v>
       </c>
       <c r="E327">
-        <v>483.338528113383</v>
+        <v>483.3385281133831</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5950,7 +5950,7 @@
         <v>41.18319013857449</v>
       </c>
       <c r="C329">
-        <v>43.9783353026251</v>
+        <v>43.97833530262511</v>
       </c>
       <c r="D329">
         <v>40.70170978818405</v>
@@ -5981,7 +5981,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>83.83061769556356</v>
+        <v>83.83061769556357</v>
       </c>
       <c r="C331">
         <v>69.54787232060158</v>
@@ -6018,13 +6018,13 @@
         <v>398.694056363341</v>
       </c>
       <c r="C333">
-        <v>367.3507396728427</v>
+        <v>367.3507396728428</v>
       </c>
       <c r="D333">
         <v>455.8978761964594</v>
       </c>
       <c r="E333">
-        <v>670.2333437176241</v>
+        <v>670.2333437176242</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6038,10 +6038,10 @@
         <v>281.2681912167484</v>
       </c>
       <c r="D334">
-        <v>322.7675717049669</v>
+        <v>322.767571704967</v>
       </c>
       <c r="E334">
-        <v>482.8048328623256</v>
+        <v>482.8048328623257</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6055,7 +6055,7 @@
         <v>359.2371767379246</v>
       </c>
       <c r="D335">
-        <v>444.7520154982807</v>
+        <v>444.7520154982808</v>
       </c>
       <c r="E335">
         <v>702.9328124289403</v>
@@ -6089,7 +6089,7 @@
         <v>282.1301152651162</v>
       </c>
       <c r="D337">
-        <v>270.3113032079971</v>
+        <v>270.3113032079972</v>
       </c>
       <c r="E337">
         <v>233.4879762520879</v>
@@ -6123,7 +6123,7 @@
         <v>458.8038282223977</v>
       </c>
       <c r="D339">
-        <v>478.6246010930591</v>
+        <v>478.6246010930593</v>
       </c>
       <c r="E339">
         <v>443.627154878967</v>
@@ -6143,7 +6143,7 @@
         <v>7.215167624714645</v>
       </c>
       <c r="E340">
-        <v>9.125799843522817</v>
+        <v>9.125799843522815</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6171,13 +6171,13 @@
         <v>40.25346457948423</v>
       </c>
       <c r="C342">
-        <v>31.29444490013213</v>
+        <v>31.29444490013214</v>
       </c>
       <c r="D342">
         <v>40.15001493118516</v>
       </c>
       <c r="E342">
-        <v>66.57740860637659</v>
+        <v>66.57740860637658</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6208,7 +6208,7 @@
         <v>9.880595400460772</v>
       </c>
       <c r="D344">
-        <v>11.39236993375996</v>
+        <v>11.39236993375997</v>
       </c>
       <c r="E344">
         <v>14.77510450856075</v>
@@ -6494,10 +6494,10 @@
         <v>714.3554519081678</v>
       </c>
       <c r="C361">
-        <v>665.1303772895494</v>
+        <v>665.1303772895495</v>
       </c>
       <c r="D361">
-        <v>787.8152251661633</v>
+        <v>787.8152251661634</v>
       </c>
       <c r="E361">
         <v>971.7360779129443</v>
@@ -6517,7 +6517,7 @@
         <v>3.709817669125124</v>
       </c>
       <c r="E362">
-        <v>4.282040048525697</v>
+        <v>4.282040048525698</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>313.8713194548284</v>
       </c>
       <c r="C364">
-        <v>285.8770686868903</v>
+        <v>285.8770686868904</v>
       </c>
       <c r="D364">
-        <v>331.3253785059777</v>
+        <v>331.3253785059776</v>
       </c>
       <c r="E364">
-        <v>376.3273051749917</v>
+        <v>376.3273051749919</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>11.4257225497475</v>
       </c>
       <c r="C365">
-        <v>3.134616981215902</v>
+        <v>3.134616981215903</v>
       </c>
       <c r="D365">
         <v>4.801817079796777</v>
       </c>
       <c r="E365">
-        <v>34.45725774492743</v>
+        <v>34.45725774492744</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6579,13 +6579,13 @@
         <v>6.987374040225006</v>
       </c>
       <c r="C366">
-        <v>5.663677973702691</v>
+        <v>5.663677973702692</v>
       </c>
       <c r="D366">
-        <v>6.138091747296628</v>
+        <v>6.138091747296627</v>
       </c>
       <c r="E366">
-        <v>7.349114789244626</v>
+        <v>7.349114789244628</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6636,7 +6636,7 @@
         <v>4.249448132743819</v>
       </c>
       <c r="E369">
-        <v>6.889795114916838</v>
+        <v>6.889795114916839</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6678,7 +6678,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>42.23933498383984</v>
+        <v>42.23933498383983</v>
       </c>
       <c r="C372">
         <v>40.56115874001621</v>
@@ -6695,16 +6695,16 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>522.7874856083157</v>
+        <v>522.7874856083156</v>
       </c>
       <c r="C373">
         <v>518.6260670429573</v>
       </c>
       <c r="D373">
-        <v>538.2509180353096</v>
+        <v>538.2509180353097</v>
       </c>
       <c r="E373">
-        <v>483.0519263426821</v>
+        <v>483.051926342682</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6715,10 +6715,10 @@
         <v>294.666587704944</v>
       </c>
       <c r="C374">
-        <v>296.6912731320085</v>
+        <v>296.6912731320086</v>
       </c>
       <c r="D374">
-        <v>274.4455709199891</v>
+        <v>274.445570919989</v>
       </c>
       <c r="E374">
         <v>196.8399587370214</v>
@@ -6752,7 +6752,7 @@
         <v>16.61756924704706</v>
       </c>
       <c r="D376">
-        <v>20.65934092195411</v>
+        <v>20.6593409219541</v>
       </c>
       <c r="E376">
         <v>36.63258565763095</v>
@@ -6766,10 +6766,10 @@
         <v>74.19854841093901</v>
       </c>
       <c r="C377">
-        <v>66.93187613393953</v>
+        <v>66.93187613393955</v>
       </c>
       <c r="D377">
-        <v>80.6698074095351</v>
+        <v>80.66980740953508</v>
       </c>
       <c r="E377">
         <v>107.7741288188273</v>
@@ -6789,7 +6789,7 @@
         <v>545.012282360388</v>
       </c>
       <c r="E378">
-        <v>527.4086292862096</v>
+        <v>527.4086292862095</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6806,7 +6806,7 @@
         <v>7.527793955253976</v>
       </c>
       <c r="E379">
-        <v>6.990688753425458</v>
+        <v>6.990688753425457</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>14.20917333820756</v>
       </c>
       <c r="E381">
-        <v>12.44925656522764</v>
+        <v>12.44925656522763</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6851,7 +6851,7 @@
         <v>29.87045952961928</v>
       </c>
       <c r="C382">
-        <v>28.8660395341958</v>
+        <v>28.86603953419581</v>
       </c>
       <c r="D382">
         <v>28.99561128556393</v>
@@ -6882,7 +6882,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>1.718287133207717</v>
+        <v>1.718287133207718</v>
       </c>
       <c r="C384">
         <v>1.514444928889105</v>
@@ -6908,7 +6908,7 @@
         <v>57.67506957669202</v>
       </c>
       <c r="E385">
-        <v>88.69085977450251</v>
+        <v>88.69085977450248</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6919,13 +6919,13 @@
         <v>62.54706233469943</v>
       </c>
       <c r="C386">
-        <v>58.14386868141038</v>
+        <v>58.14386868141039</v>
       </c>
       <c r="D386">
         <v>60.48234524198951</v>
       </c>
       <c r="E386">
-        <v>54.58801244305184</v>
+        <v>54.58801244305181</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6936,13 +6936,13 @@
         <v>42.92445454342118</v>
       </c>
       <c r="C387">
-        <v>41.12615101855856</v>
+        <v>41.12615101855857</v>
       </c>
       <c r="D387">
         <v>50.59960909133763</v>
       </c>
       <c r="E387">
-        <v>62.01198213530687</v>
+        <v>62.01198213530685</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6976,7 +6976,7 @@
         <v>23.37379481325928</v>
       </c>
       <c r="E389">
-        <v>19.8114813839203</v>
+        <v>19.81148138392029</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>58.77455291407927</v>
+        <v>58.77455291407926</v>
       </c>
       <c r="C391">
         <v>53.13542037228248</v>
@@ -7027,7 +7027,7 @@
         <v>15.43552487668065</v>
       </c>
       <c r="E392">
-        <v>18.37064637418064</v>
+        <v>18.37064637418063</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,7 +7035,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>91.95864386079981</v>
+        <v>91.95864386079977</v>
       </c>
       <c r="C393">
         <v>82.10399514293717</v>
@@ -7044,7 +7044,7 @@
         <v>73.99263421512646</v>
       </c>
       <c r="E393">
-        <v>62.11142539914205</v>
+        <v>62.11142539914204</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7072,13 +7072,13 @@
         <v>101.2837995919324</v>
       </c>
       <c r="C395">
-        <v>89.21617764512419</v>
+        <v>89.2161776451242</v>
       </c>
       <c r="D395">
-        <v>78.08251115316041</v>
+        <v>78.0825111531604</v>
       </c>
       <c r="E395">
-        <v>65.56969619434817</v>
+        <v>65.56969619434815</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7089,7 +7089,7 @@
         <v>31.617694052508</v>
       </c>
       <c r="C396">
-        <v>24.98052974063477</v>
+        <v>24.98052974063478</v>
       </c>
       <c r="D396">
         <v>21.66883084633159</v>
@@ -7103,7 +7103,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>53.76527790781661</v>
+        <v>53.7652779078166</v>
       </c>
       <c r="C397">
         <v>54.85439998363997</v>
@@ -7154,7 +7154,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>28.95562516064146</v>
+        <v>28.95562516064147</v>
       </c>
       <c r="C400">
         <v>27.39092015006796</v>
@@ -7228,7 +7228,7 @@
         <v>134.123375431606</v>
       </c>
       <c r="D404">
-        <v>89.17436056996145</v>
+        <v>89.17436056996142</v>
       </c>
       <c r="E404">
         <v>41.77551401765924</v>
@@ -7242,10 +7242,10 @@
         <v>9.775575724211635</v>
       </c>
       <c r="C405">
-        <v>8.720095616296364</v>
+        <v>8.720095616296362</v>
       </c>
       <c r="D405">
-        <v>6.01175464516594</v>
+        <v>6.011754645165938</v>
       </c>
       <c r="E405">
         <v>2.931615018783104</v>
@@ -7262,7 +7262,7 @@
         <v>7.059125022716104</v>
       </c>
       <c r="D406">
-        <v>4.675809168462398</v>
+        <v>4.675809168462397</v>
       </c>
       <c r="E406">
         <v>2.198711264087328</v>
@@ -7293,7 +7293,7 @@
         <v>0.4448985697040225</v>
       </c>
       <c r="C408">
-        <v>0.3786566794725443</v>
+        <v>0.3786566794725442</v>
       </c>
       <c r="D408">
         <v>0.3077254157468584</v>
@@ -7313,7 +7313,7 @@
         <v>1.135970038417633</v>
       </c>
       <c r="D409">
-        <v>0.9231762472405752</v>
+        <v>0.9231762472405751</v>
       </c>
       <c r="E409">
         <v>0.4490403174512154</v>
@@ -7324,10 +7324,10 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>371.9085910323894</v>
+        <v>371.9085910323896</v>
       </c>
       <c r="C410">
-        <v>375.6886907271413</v>
+        <v>375.6886907271414</v>
       </c>
       <c r="D410">
         <v>382.0097891958798</v>
@@ -7347,7 +7347,7 @@
         <v>5.750844949784281</v>
       </c>
       <c r="D411">
-        <v>7.630658340559294</v>
+        <v>7.630658340559292</v>
       </c>
       <c r="E411">
         <v>23.04428520587808</v>
@@ -7364,7 +7364,7 @@
         <v>1.43771123744607</v>
       </c>
       <c r="D412">
-        <v>1.430748438854868</v>
+        <v>1.430748438854867</v>
       </c>
       <c r="E412">
         <v>1.355546188581064</v>
@@ -7381,7 +7381,7 @@
         <v>7.704859946419836</v>
       </c>
       <c r="D413">
-        <v>8.771021441353827</v>
+        <v>8.771021441353826</v>
       </c>
       <c r="E413">
         <v>17.01053491658814</v>
@@ -7392,7 +7392,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>9.318509895506489</v>
+        <v>9.318509895506491</v>
       </c>
       <c r="C414">
         <v>8.750723910104021</v>
@@ -7443,16 +7443,16 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>60.73791208790218</v>
+        <v>60.73791208790217</v>
       </c>
       <c r="C417">
         <v>55.31651517823468</v>
       </c>
       <c r="D417">
-        <v>44.34759042452093</v>
+        <v>44.34759042452092</v>
       </c>
       <c r="E417">
-        <v>30.78211454039872</v>
+        <v>30.78211454039871</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.5840183854605979</v>
+        <v>0.5840183854605978</v>
       </c>
       <c r="C418">
-        <v>0.4983469835876999</v>
+        <v>0.4983469835876998</v>
       </c>
       <c r="D418">
-        <v>0.4144634619114105</v>
+        <v>0.4144634619114104</v>
       </c>
       <c r="E418">
-        <v>0.3309904789290185</v>
+        <v>0.3309904789290184</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7500,7 +7500,7 @@
         <v>10.67065154177166</v>
       </c>
       <c r="D420">
-        <v>10.1729181316139</v>
+        <v>10.17291813161391</v>
       </c>
       <c r="E420">
         <v>10.03870460264875</v>
@@ -7511,10 +7511,10 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>98.77399900464027</v>
+        <v>98.77399900464026</v>
       </c>
       <c r="C421">
-        <v>96.86216084352847</v>
+        <v>96.8621608435285</v>
       </c>
       <c r="D421">
         <v>80.51397318242638</v>
@@ -7531,7 +7531,7 @@
         <v>34.21582972056166</v>
       </c>
       <c r="C422">
-        <v>36.84327590367341</v>
+        <v>36.84327590367342</v>
       </c>
       <c r="D422">
         <v>36.23128793209187</v>
@@ -7548,10 +7548,10 @@
         <v>73.22895104667664</v>
       </c>
       <c r="C423">
-        <v>67.39358868487362</v>
+        <v>67.39358868487363</v>
       </c>
       <c r="D423">
-        <v>56.21875809576106</v>
+        <v>56.21875809576107</v>
       </c>
       <c r="E423">
         <v>39.15094795033012</v>
@@ -7565,10 +7565,10 @@
         <v>76.95245703210088</v>
       </c>
       <c r="C424">
-        <v>80.87230642184835</v>
+        <v>80.87230642184836</v>
       </c>
       <c r="D424">
-        <v>66.92709297114412</v>
+        <v>66.92709297114411</v>
       </c>
       <c r="E424">
         <v>40.154818410595</v>
@@ -7582,7 +7582,7 @@
         <v>15.49396062817887</v>
       </c>
       <c r="C425">
-        <v>17.82739156629358</v>
+        <v>17.82739156629359</v>
       </c>
       <c r="D425">
         <v>13.22729559425576</v>
@@ -7616,7 +7616,7 @@
         <v>23.45851857181826</v>
       </c>
       <c r="C427">
-        <v>15.79872392034268</v>
+        <v>15.79872392034269</v>
       </c>
       <c r="D427">
         <v>16.08109311350637</v>
@@ -7633,7 +7633,7 @@
         <v>56.541044762844</v>
       </c>
       <c r="C428">
-        <v>54.2422854598432</v>
+        <v>54.24228545984321</v>
       </c>
       <c r="D428">
         <v>53.26862093848987</v>
@@ -7647,7 +7647,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>21.72045158164138</v>
+        <v>21.72045158164137</v>
       </c>
       <c r="C429">
         <v>13.47871773697473</v>
@@ -7718,7 +7718,7 @@
         <v>23.58220457435349</v>
       </c>
       <c r="C433">
-        <v>17.97162364929963</v>
+        <v>17.97162364929964</v>
       </c>
       <c r="D433">
         <v>19.2750027756895</v>
@@ -7741,7 +7741,7 @@
         <v>18.92692688899487</v>
       </c>
       <c r="E434">
-        <v>14.84439707914328</v>
+        <v>14.84439707914329</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7752,7 +7752,7 @@
         <v>12.41168661808079</v>
       </c>
       <c r="C435">
-        <v>13.47871773697472</v>
+        <v>13.47871773697473</v>
       </c>
       <c r="D435">
         <v>12.85000185045967</v>
@@ -7783,16 +7783,16 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>32.96476663983942</v>
+        <v>32.96476663983941</v>
       </c>
       <c r="C437">
         <v>31.8309665833025</v>
       </c>
       <c r="D437">
-        <v>29.61575863967127</v>
+        <v>29.61575863967128</v>
       </c>
       <c r="E437">
-        <v>25.60253947955377</v>
+        <v>25.60253947955378</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7800,10 +7800,10 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>25.93228309000701</v>
+        <v>25.932283090007</v>
       </c>
       <c r="C438">
-        <v>29.61020147283953</v>
+        <v>29.61020147283954</v>
       </c>
       <c r="D438">
         <v>23.95881597816103</v>
@@ -7820,10 +7820,10 @@
         <v>11.86731599034219</v>
       </c>
       <c r="C439">
-        <v>9.993442997083342</v>
+        <v>9.993442997083344</v>
       </c>
       <c r="D439">
-        <v>10.31560132393044</v>
+        <v>10.31560132393045</v>
       </c>
       <c r="E439">
         <v>13.26396623639533</v>
@@ -7840,7 +7840,7 @@
         <v>26.27905380714509</v>
       </c>
       <c r="D440">
-        <v>19.63291864877084</v>
+        <v>19.63291864877085</v>
       </c>
       <c r="E440">
         <v>10.48778725668468</v>
@@ -7857,10 +7857,10 @@
         <v>8.142805405030874</v>
       </c>
       <c r="D441">
-        <v>6.655226660600286</v>
+        <v>6.655226660600287</v>
       </c>
       <c r="E441">
-        <v>5.243893628342339</v>
+        <v>5.24389362834234</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7891,10 +7891,10 @@
         <v>9.993442997083342</v>
       </c>
       <c r="D443">
-        <v>7.986271992720344</v>
+        <v>7.986271992720345</v>
       </c>
       <c r="E443">
-        <v>5.243893628342339</v>
+        <v>5.24389362834234</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7908,10 +7908,10 @@
         <v>12.5843356259568</v>
       </c>
       <c r="D444">
-        <v>9.317317324840401</v>
+        <v>9.317317324840403</v>
       </c>
       <c r="E444">
-        <v>5.243893628342339</v>
+        <v>5.24389362834234</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7925,10 +7925,10 @@
         <v>0.3701275184104942</v>
       </c>
       <c r="D445">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E445">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7936,7 +7936,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>7.472013771696935</v>
+        <v>7.472013771696933</v>
       </c>
       <c r="C446">
         <v>5.551912776157413</v>
@@ -7959,10 +7959,10 @@
         <v>0.3701275184104942</v>
       </c>
       <c r="D447">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E447">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7973,13 +7973,13 @@
         <v>5.910978377727477</v>
       </c>
       <c r="C448">
-        <v>5.266631292102619</v>
+        <v>5.26663129210262</v>
       </c>
       <c r="D448">
-        <v>4.777303136995809</v>
+        <v>4.77730313699581</v>
       </c>
       <c r="E448">
-        <v>5.93950143170808</v>
+        <v>5.939501431708082</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7990,7 +7990,7 @@
         <v>42.85459323852421</v>
       </c>
       <c r="C449">
-        <v>40.81639251379529</v>
+        <v>40.8163925137953</v>
       </c>
       <c r="D449">
         <v>34.63544774321961</v>
@@ -8024,13 +8024,13 @@
         <v>36.20474256358079</v>
       </c>
       <c r="C451">
-        <v>33.57477448715419</v>
+        <v>33.5747744871542</v>
       </c>
       <c r="D451">
-        <v>35.23261063534409</v>
+        <v>35.2326106353441</v>
       </c>
       <c r="E451">
-        <v>41.57651002195656</v>
+        <v>41.57651002195657</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8044,7 +8044,7 @@
         <v>30.28312992959006</v>
       </c>
       <c r="D452">
-        <v>30.45530749834828</v>
+        <v>30.45530749834829</v>
       </c>
       <c r="E452">
         <v>37.25687261707797</v>
@@ -8061,7 +8061,7 @@
         <v>25.01649863748744</v>
       </c>
       <c r="D453">
-        <v>30.45530749834828</v>
+        <v>30.45530749834829</v>
       </c>
       <c r="E453">
         <v>53.99546756098255</v>
@@ -8098,7 +8098,7 @@
         <v>11.93075290837585</v>
       </c>
       <c r="E455">
-        <v>15.30438249246326</v>
+        <v>15.30438249246327</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8129,10 +8129,10 @@
         <v>4.073163682313478</v>
       </c>
       <c r="D457">
-        <v>4.474032340640945</v>
+        <v>4.474032340640946</v>
       </c>
       <c r="E457">
-        <v>3.826095623115815</v>
+        <v>3.826095623115816</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8163,10 +8163,10 @@
         <v>9.164618285205323</v>
       </c>
       <c r="D459">
-        <v>9.44517938579755</v>
+        <v>9.445179385797552</v>
       </c>
       <c r="E459">
-        <v>9.086977104900061</v>
+        <v>9.086977104900063</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8180,10 +8180,10 @@
         <v>24.43898209388087</v>
       </c>
       <c r="D460">
-        <v>20.38170288514208</v>
+        <v>20.38170288514209</v>
       </c>
       <c r="E460">
-        <v>11.95654882223692</v>
+        <v>11.95654882223693</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8200,7 +8200,7 @@
         <v>23.36439111223605</v>
       </c>
       <c r="E461">
-        <v>21.04352592713698</v>
+        <v>21.04352592713699</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8214,7 +8214,7 @@
         <v>4.073163682313478</v>
       </c>
       <c r="D462">
-        <v>3.976917636125284</v>
+        <v>3.976917636125285</v>
       </c>
       <c r="E462">
         <v>3.826095623115816</v>
@@ -8228,13 +8228,13 @@
         <v>38.49603047682997</v>
       </c>
       <c r="C463">
-        <v>34.7571926247539</v>
+        <v>34.75719262475391</v>
       </c>
       <c r="D463">
         <v>31.65965206721567</v>
       </c>
       <c r="E463">
-        <v>26.19346226442985</v>
+        <v>26.19346226442986</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8265,7 +8265,7 @@
         <v>2.620190464374635</v>
       </c>
       <c r="D465">
-        <v>2.308161815731082</v>
+        <v>2.308161815731081</v>
       </c>
       <c r="E465">
         <v>1.649377453238143</v>
@@ -8316,7 +8316,7 @@
         <v>13.82490714176938</v>
       </c>
       <c r="D468">
-        <v>14.9290723031119</v>
+        <v>14.92907230311191</v>
       </c>
       <c r="E468">
         <v>29.15755248293058</v>
@@ -8350,7 +8350,7 @@
         <v>20.40819625689765</v>
       </c>
       <c r="D470">
-        <v>19.70637544010771</v>
+        <v>19.70637544010772</v>
       </c>
       <c r="E470">
         <v>27.5376884561011</v>
@@ -8364,13 +8364,13 @@
         <v>6.61650523820515</v>
       </c>
       <c r="C471">
-        <v>5.266241306780895</v>
+        <v>5.266241306780896</v>
       </c>
       <c r="D471">
         <v>5.527875757767817</v>
       </c>
       <c r="E471">
-        <v>6.08062516852836</v>
+        <v>6.080625168528361</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8384,10 +8384,10 @@
         <v>5.091454602891847</v>
       </c>
       <c r="D472">
-        <v>5.468261749672266</v>
+        <v>5.468261749672267</v>
       </c>
       <c r="E472">
-        <v>6.2174053875632</v>
+        <v>6.217405387563201</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8401,10 +8401,10 @@
         <v>10.04729329442638</v>
       </c>
       <c r="D473">
-        <v>9.256450663045666</v>
+        <v>9.256450663045664</v>
       </c>
       <c r="E473">
-        <v>8.559785474777851</v>
+        <v>8.559785474777852</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8463,7 +8463,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>6.496620327788175</v>
+        <v>6.496620327788174</v>
       </c>
       <c r="C477">
         <v>7.864515723093765</v>
@@ -8472,7 +8472,7 @@
         <v>8.238952712139389</v>
       </c>
       <c r="E477">
-        <v>6.790332669580281</v>
+        <v>6.790332669580282</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8523,7 +8523,7 @@
         <v>11.62827648163571</v>
       </c>
       <c r="E480">
-        <v>12.26719552351283</v>
+        <v>12.26719552351282</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>292.5995947748914</v>
+        <v>292.5995947748916</v>
       </c>
       <c r="C481">
         <v>309.1145561661054</v>
@@ -8602,7 +8602,7 @@
         <v>36.22751728426014</v>
       </c>
       <c r="C485">
-        <v>26.23909954238273</v>
+        <v>26.23909954238274</v>
       </c>
       <c r="D485">
         <v>26.31662572159661</v>
@@ -8619,13 +8619,13 @@
         <v>88.79514654793135</v>
       </c>
       <c r="C486">
-        <v>87.65539659465406</v>
+        <v>87.65539659465408</v>
       </c>
       <c r="D486">
         <v>72.95692870483558</v>
       </c>
       <c r="E486">
-        <v>52.54158981136355</v>
+        <v>52.54158981136354</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8650,13 +8650,13 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>91.09027715795438</v>
+        <v>91.09027715795439</v>
       </c>
       <c r="C488">
-        <v>86.63226224948538</v>
+        <v>86.63226224948539</v>
       </c>
       <c r="D488">
-        <v>79.27397668198249</v>
+        <v>79.27397668198248</v>
       </c>
       <c r="E488">
         <v>69.00453586340164</v>
@@ -8670,13 +8670,13 @@
         <v>16.21098152811053</v>
       </c>
       <c r="C489">
-        <v>9.188270238581783</v>
+        <v>9.188270238581785</v>
       </c>
       <c r="D489">
-        <v>7.654039127915551</v>
+        <v>7.654039127915549</v>
       </c>
       <c r="E489">
-        <v>7.911348060772164</v>
+        <v>7.911348060772162</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,13 +8684,13 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>85.04343369319264</v>
+        <v>85.04343369319267</v>
       </c>
       <c r="C490">
-        <v>89.72925356077393</v>
+        <v>89.72925356077394</v>
       </c>
       <c r="D490">
-        <v>70.43212431738857</v>
+        <v>70.43212431738858</v>
       </c>
       <c r="E490">
         <v>41.43886379914864</v>
@@ -8701,10 +8701,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>6.253721545576323</v>
+        <v>6.253721545576325</v>
       </c>
       <c r="C491">
-        <v>5.395211557232811</v>
+        <v>5.395211557232812</v>
       </c>
       <c r="D491">
         <v>4.735084373563129</v>
@@ -8718,7 +8718,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>233.4170839664223</v>
+        <v>233.4170839664224</v>
       </c>
       <c r="C492">
         <v>245.3658349582225</v>
@@ -8735,7 +8735,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>94.09060749034077</v>
+        <v>94.0906074903408</v>
       </c>
       <c r="C493">
         <v>80.20048327113422</v>
@@ -8744,7 +8744,7 @@
         <v>79.49764526913167</v>
       </c>
       <c r="E493">
-        <v>90.79986332460511</v>
+        <v>90.7998633246051</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8752,7 +8752,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>238.8453882447112</v>
+        <v>238.8453882447113</v>
       </c>
       <c r="C494">
         <v>212.8092031352869</v>
@@ -8778,7 +8778,7 @@
         <v>0.5548911858375353</v>
       </c>
       <c r="E495">
-        <v>0.4368779987297955</v>
+        <v>0.4368779987297954</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,7 +8789,7 @@
         <v>0.8427766704517561</v>
       </c>
       <c r="C496">
-        <v>0.7260645024839759</v>
+        <v>0.726064502483976</v>
       </c>
       <c r="D496">
         <v>0.6258173810214817</v>
@@ -8812,7 +8812,7 @@
         <v>32.18368877857704</v>
       </c>
       <c r="E497">
-        <v>26.21267992378773</v>
+        <v>26.21267992378772</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8840,13 +8840,13 @@
         <v>30.25688396349074</v>
       </c>
       <c r="C499">
-        <v>26.42479539559923</v>
+        <v>26.42479539559924</v>
       </c>
       <c r="D499">
         <v>24.27479774878176</v>
       </c>
       <c r="E499">
-        <v>24.02274857822286</v>
+        <v>24.02274857822285</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8857,7 +8857,7 @@
         <v>13.90181155079305</v>
       </c>
       <c r="C500">
-        <v>13.90778705031538</v>
+        <v>13.90778705031539</v>
       </c>
       <c r="D500">
         <v>11.55942749941989</v>
